--- a/data/ddt_data.xlsx
+++ b/data/ddt_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>case_id</t>
   </si>
@@ -54,16 +54,10 @@
     <t>输入错误的手机号和正确的验证码</t>
   </si>
   <si>
-    <t>https://api.shaoziketang.com/wap/v2.9/login/data</t>
-  </si>
-  <si>
     <t>{"mobile":"1531236216","rand":"678123"}</t>
   </si>
   <si>
     <t>输入正确的手机号和错误的验证码</t>
-  </si>
-  <si>
-    <t>https://api.shaoziketang.com/wap/v2.10/login/data</t>
   </si>
   <si>
     <t>{"mobile":"15312362160","rand":"678124"}</t>
@@ -94,6 +88,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -101,23 +103,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,9 +126,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,21 +143,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +151,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,9 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,24 +187,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,9 +209,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,37 +247,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,13 +367,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,121 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,13 +435,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,32 +474,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,11 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +523,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -695,7 +689,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,7 +1043,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1092,7 +1086,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
@@ -1109,11 +1103,11 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1127,13 +1121,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1143,6 +1137,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://api.shaoziketang.com/wap/v2.8/login/data"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://api.shaoziketang.com/wap/v2.8/login/data"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/ddt_data.xlsx
+++ b/data/ddt_data.xlsx
@@ -105,7 +105,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,6 +113,43 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,16 +163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,50 +174,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,23 +196,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,8 +476,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -474,17 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -495,21 +510,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,8 +1042,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>

--- a/data/ddt_data.xlsx
+++ b/data/ddt_data.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>case_id</t>
   </si>
   <si>
+    <t>mode</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
     <t>fact</t>
   </si>
   <si>
+    <t>登录</t>
+  </si>
+  <si>
     <t>输入正常的手机号和验证码</t>
   </si>
   <si>
@@ -61,6 +67,21 @@
   </si>
   <si>
     <t>{"mobile":"15312362160","rand":"678124"}</t>
+  </si>
+  <si>
+    <t>我的收藏</t>
+  </si>
+  <si>
+    <t>查询用户下的收藏</t>
+  </si>
+  <si>
+    <t>https://api.shaoziketang.com/wap/v2.8/user/learn</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
 </sst>
 </file>
@@ -96,6 +117,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -103,6 +132,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -112,14 +169,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,7 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,7 +207,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,75 +252,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,43 +262,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,139 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +453,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,30 +497,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -485,17 +506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,11 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,149 +561,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +711,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,20 +1064,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="58.375" customWidth="1"/>
-    <col min="4" max="4" width="50.375" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="58.375" customWidth="1"/>
+    <col min="5" max="5" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,71 +1099,107 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="18" spans="1:6">
+    <row r="2" ht="18" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:6">
+    <row r="3" ht="18" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" ht="18" spans="1:6">
+    <row r="4" ht="18" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://api.shaoziketang.com/wap/v2.8/login/data"/>
-    <hyperlink ref="C4" r:id="rId1" display="https://api.shaoziketang.com/wap/v2.8/login/data"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://api.shaoziketang.com/wap/v2.8/login/data"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://api.shaoziketang.com/wap/v2.8/login/data"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://api.shaoziketang.com/wap/v2.8/user/learn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/ddt_data.xlsx
+++ b/data/ddt_data.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="my" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="api" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>case_id</t>
   </si>
@@ -42,13 +42,16 @@
     <t>fact</t>
   </si>
   <si>
+    <t>result</t>
+  </si>
+  <si>
     <t>登录</t>
   </si>
   <si>
     <t>输入正常的手机号和验证码</t>
   </si>
   <si>
-    <t>https://api.shaoziketang.com/wap/v2.8/login/data</t>
+    <t>${host}login/data</t>
   </si>
   <si>
     <t>{"mobile":"15312362160","rand":"678123"}</t>
@@ -69,13 +72,16 @@
     <t>{"mobile":"15312362160","rand":"678124"}</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>个人中心</t>
   </si>
   <si>
     <t>测试用户-我的学习接口</t>
   </si>
   <si>
-    <t>https://api.shaoziketang.com/wap/v2.8/user/learn</t>
+    <t>${host}user/learn</t>
   </si>
   <si>
     <t>get</t>
@@ -84,7 +90,19 @@
     <t>测试用户-我的信息接口</t>
   </si>
   <si>
-    <t>https://api.shaoziketang.com/wap/v2.8/user/user_info?client=3</t>
+    <t>${host}user/user_info?client=3</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>https://api.shaoziketang.com/wap/v2.8/</t>
+  </si>
+  <si>
+    <t>test_host</t>
+  </si>
+  <si>
+    <t>http://api.test.shaoziketang.com/wap/v2.8/</t>
   </si>
 </sst>
 </file>
@@ -97,10 +115,18 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -112,24 +138,75 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,14 +214,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,63 +235,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,35 +273,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -273,43 +283,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,139 +451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +474,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,30 +496,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -523,6 +518,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -532,11 +536,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,176 +574,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,20 +1083,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="31.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="58.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="50.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="31.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,81 +1123,89 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="18" spans="1:7">
+    <row r="2" ht="18" customHeight="1" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>200</v>
       </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" ht="18" spans="1:7">
+    <row r="3" ht="18" customHeight="1" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
       <c r="G3">
         <v>-1</v>
       </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" ht="18" spans="1:7">
+    <row r="4" ht="18" customHeight="1" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>-1</v>
       </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://api.shaoziketang.com/wap/v2.8/login/data"/>
-    <hyperlink ref="D4" r:id="rId1" display="https://api.shaoziketang.com/wap/v2.8/login/data"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1197,20 +1215,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="62.5" customWidth="1"/>
-    <col min="5" max="5" width="50.375" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1235,45 +1253,74 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="18" spans="1:7">
+    <row r="2" ht="18" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>200</v>
       </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="18" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
         <v>200</v>
       </c>
     </row>
@@ -1287,14 +1334,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://api.test.shaoziketang.com/wap/v2.8/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/ddt_data.xlsx
+++ b/data/ddt_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7590" windowWidth="19890"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7590" windowWidth="19890"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -55,6 +55,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -62,8 +69,68 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -85,27 +152,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -113,14 +159,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
@@ -131,7 +169,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -143,44 +181,6 @@
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -191,187 +191,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,16 +400,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,17 +420,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,23 +453,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,10 +490,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="26" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="22" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -502,16 +502,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -520,16 +520,19 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="17" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="32" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
@@ -538,97 +541,94 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="16" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="16" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="30" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="14" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="14" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="20" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,7 +991,7 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:I4"/>
     </sheetView>
   </sheetViews>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'code': 200, 'message': '登录成功', 'data': {'token': '23561ec1ea5bce4ad72cebb19312f2af', 'avator': 'http://thirdwx.qlogo.cn/mmopen/vi_32/vNh0OeYBx4LaUfNWic5iaDKzdG37UCuHCwVkqtkuLCIU63HhpLK9Aynviau7H8ia1WgeIITasZqNZic3KDA4791AZ9w/132', 'avatar': 'http://thirdwx.qlogo.cn/mmopen/vi_32/vNh0OeYBx4LaUfNWic5iaDKzdG37UCuHCwVkqtkuLCIU63HhpLK9Aynviau7H8ia1WgeIITasZqNZic3KDA4791AZ9w/132', 'nickname': '万元', 'name': '万元', 'user_id': 2434654, 'password': '', 'is_blocked': '', 'area': '天津市', 'brand': '勺子课堂', 'job': '', 'mobile': 15312362160, 'is_vip': 1, 'position': '门店骨干-门店管理层（区域经理、店长）', 'rand_str': '5f194d0fcd6d9', 'openid': 'oxONcwYi5rrGpgM1ICyt7ww1OIIc'}}</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': -1, 'message': '手机号不符合要求', 'data': []}</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'code': '-1', 'message': '验证码不正确或已过期', 'data': []}</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -1190,8 +1190,8 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'code': 200, 'message': '获取成功', 'data': {'collect': [{'id': 5001026, 'type': 2, 'title': '巴奴杜中兵：创业19年干货分享丨【勺子深荐】', 'img': 'https://img.test.shaoziketang.com/IMG/2020/01/17/JPG20200117140235556899_43376.jpg', 'money': 0}, {'id': 1301, 'type': 1, 'title': '如何玩转会员积分', 'img': 'https://img.test.shaoziketang.com/IMG/2019/12/02/JPG20191202154359396026_194313.jpg', 'money': '29.90', 'ifnew': '0', 'course_type': '1'}, {'id': 1315, 'type': 1, 'title': '你的餐厅为什么招不到人', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/28/JPG20191028160409494903_40665.jpg', 'money': '19.90', 'ifnew': '0', 'course_type': '1'}, {'id': 1298, 'type': 1, 'title': '节日营销该怎么做', 'img': 'https://img.shaoziketang.com/img20180614164334_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'course_type': '1'}, {'id': 1716, 'type': 1, 'title': '外卖菜单规划逻辑', 'img': 'https://img.shaoziketang.com/img20190214180054_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'course_type': '1'}, {'id': 1864, 'type': 1, 'title': '提升多门店业绩经营能力', 'img': 'https://img.shaoziketang.com/img20190627105835_100.h.jpg', 'money': '19.90', 'ifnew': '0', 'course_type': '1'}, {'id': 1574, 'type': 1, 'title': 'BEST反馈法，批评的艺术', 'img': 'https://img.shaoziketang.com/img20180727150425_100.h.png', 'money': '0.00', 'ifnew': '0', 'course_type': '1'}, {'id': 5000090, 'type': 1, 'title': '策略和人才是王品核心', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/23/JPG20191023110056564436_197327.jpg', 'money': '0.00', 'ifnew': '0', 'course_type': '1'}, {'id': 1322, 'type': 1, 'title': '7种外卖品类全面解析', 'img': 'https://img.shaoziketang.com/img20180423184102_100.h.png', 'money': '29.90', 'ifnew': '0', 'course_type': '1'}, {'id': 213, 'type': 1, 'title': '局气爆红的营销秘密', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/29/JPG20191029152424646291_292253.jpg', 'money': '0.00', 'ifnew': '0', 'course_type': '1'}, {'id': 5000423, 'type': 2, 'title': '20年12000家店！华莱士小餐饮模式是如何炼成的？', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/25/JPG20191025112019198984_12620.jpg', 'money': 0}, {'id': 1073, 'type': 1, 'title': '如何维护与供应商的关系', 'img': 'https://img.shaoziketang.com/img20180426183356_100.h.jpg', 'money': '19.90', 'ifnew': '0', 'course_type': '1'}, {'id': 1300, 'type': 1, 'title': '加盟热潮来袭，如何入局', 'img': 'https://img.shaoziketang.com/img20180614162323_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'course_type': '1'}], 'order': [{'pid': 5030402, 'num': 1, 'order_money': '0.00', 'order_no': '20200701174621814005', 'create_shijian': '2020-07-01 17:46:21', 'finish_shijian': '2020-07-01 17:46:21', 'is_gift': 0, 'id': 5000169, 'type': 3, 'title': '连锁餐饮店长能力A级证书', 'img': 'https://img.test.shaoziketang.com/IMG/2020/06/30/JPG20200630180721417680_249117.jpg', 'money': '0.00'}, {'pid': 5030401, 'num': 1, 'order_money': '0.00', 'order_no': '20200701174615753611', 'create_shijian': '2020-07-01 17:46:15', 'finish_shijian': '2020-07-01 17:46:15', 'is_gift': 0, 'id': 5000169, 'type': 3, 'title': '连锁餐饮店长能力A级证书', 'img': 'https://img.test.shaoziketang.com/IMG/2020/06/30/JPG20200630180721417680_249117.jpg', 'money': '0.00'}, {'pid': 5026257, 'num': 1, 'order_money': '29.90', 'order_no': '20200402175512126994', 'create_shijian': '2020-04-02 17:55:12', 'finish_shijian': '2020-04-02 17:55:13', 'is_gift': 0, 'id': 35, 'type': 1, 'title': '20人管理1000人！丰茂烤串教你人力管理', 'img': 'https://img.shaoziketang.com/img20180608144858_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'is_evaluate': 2, 'per': '0%', 'course_type': '1'}, {'pid': 5020318, 'num': 1, 'order_money': '0.00', 'order_no': '20200219164951918099', 'create_shijian': '2020-02-19 16:49:51', 'finish_shijian': '2020-02-19 16:49:52', 'is_gift': 0, 'class_id': 17, 'id': 5000303, 'title': '大众点评五星登顶实操班', 'img': 'https://img.test.shaoziketang.com/IMG/2020/02/10/JPG20200210131842221481_104986.jpg', 'money': '0.00', 'ifnew': '0', 'is_evaluate': 1, 'per': '0%', 'course_type': '11', 'type': 15, 'date_range': '02.24-02.28'}, {'pid': 5017057, 'num': 1, 'order_money': '298.00', 'order_no': '20200208015821013785', 'create_shijian': '2020-02-08 01:58:21', 'finish_shijian': '2020-02-08 01:58:21', 'is_gift': 0, 'class_id': 6, 'id': 5000298, 'title': '测试数据', 'img': 'https://img.test.shaoziketang.com/IMG/2020/02/09/JPG20200209011514142102_23164.jpg', 'money': '298.00', 'ifnew': '0', 'is_evaluate': 1, 'per': '0%', 'course_type': '11', 'type': 15, 'date_range': '02.09-02.09'}, {'pid': 5012334, 'num': 1, 'order_money': '99.00', 'order_no': '20200110102211316455', 'create_shijian': '2020-01-10 10:22:11', 'finish_shijian': '2020-01-10 10:22:11', 'is_gift': 0, 'class_id': 3, 'id': 5000251, 'title': '手把手教你设计外卖活动 第1期', 'img': 'https://img.test.shaoziketang.com/IMG/2019/12/25/JPG20191225185420600575_289799.jpg', 'money': '99.00', 'ifnew': '0', 'is_evaluate': 1, 'per': '0%', 'course_type': '11', 'type': 15, 'date_range': '01.13-01.16'}, {'pid': 5011671, 'num': 1, 'order_money': '0.00', 'order_no': '', 'create_shijian': '2019-12-30 16:50:51', 'finish_shijian': '2019-12-30 16:50:51', 'is_gift': 0, 'id': 5000216, 'type': 1, 'title': '读懂报表就这么简单 第1期', 'img': 'https://img.test.shaoziketang.com/IMG/2020/01/02/JPG20200102162655152567_279282.jpg', 'money': '0.00', 'ifnew': '0', 'is_evaluate': 1, 'per': '1%', 'course_type': '2'}, {'pid': 5008965, 'num': 1, 'order_money': '0.00', 'order_no': '', 'create_shijian': '2019-12-02 16:17:33', 'finish_shijian': '2019-12-02 16:17:31', 'is_gift': 1, 'id': 5000087, 'type': 1, 'title': '让抖音炸裂餐厅流量 第2期', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/21/JPG20191021104331114816_109895.jpg', 'money': '0.00', 'ifnew': '0', 'is_evaluate': 3, 'per': '24%', 'course_type': '2'}, {'pid': 5000378, 'num': 1, 'order_money': '0.00', 'order_no': '20190819191518188223', 'create_shijian': '2019-08-19 19:15:18', 'finish_shijian': '2019-08-19 19:15:18', 'is_gift': 1, 'id': 1503, 'type': 1, 'title': '入驻饿了么平台三大技能', 'img': 'https://img.shaoziketang.com/img20180404192142_100.h.jpg', 'money': '0.00', 'ifnew': '0', 'is_evaluate': 3, 'per': '80%', 'course_type': '1'}, {'pid': 5000164, 'num': 1, 'order_money': '99.00', 'order_no': '20190814111628885255', 'create_shijian': '2019-08-14 11:16:28', 'finish_shijian': '2019-08-14 11:16:54', 'is_gift': 0, 'id': 110, 'type': 1, 'title': '餐企食品安全攻略与操作规范', 'img': 'https://img.shaoziketang.com/img20180426155859_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'is_evaluate': 2, 'per': '11%', 'course_type': '1'}, {'pid': 0, 'num': 0, 'order_money': 0, 'order_no': '', 'create_shijian': '2019-08-13 16:42:48', 'finish_shijian': '2019-08-13 16:42:48', 'id': 222, 'type': 1, 'title': '餐厅经营数据分析与实操', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/30/JPG20191030174030306960_297879.jpg', 'money': 0, 'ifnew': '0', 'is_evaluate': 1, 'per': '3%', 'course_type': '1'}, {'pid': 0, 'num': 0, 'order_money': 0, 'order_no': '', 'create_shijian': '2019-08-13 16:42:48', 'finish_shijian': '2019-08-13 16:42:48', 'id': 298, 'type': 1, 'title': '教你从无到有开餐厅', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/28/JPEG20191028181729498735_198984.jpeg', 'money': 0, 'ifnew': '0', 'is_evaluate': 1, 'per': '3%', 'course_type': '1'}, {'pid': 0, 'num': 0, 'order_money': 0, 'order_no': '', 'create_shijian': '2019-08-13 16:42:48', 'finish_shijian': '2019-08-13 16:42:48', 'id': 1305, 'type': 1, 'title': '如何玩转外卖平台', 'img': 'https://img.shaoziketang.com/img20181218095642_100.h.jpg', 'money': 0, 'ifnew': '0', 'is_evaluate': 1, 'per': '0%', 'course_type': '1'}, {'pid': 0, 'num': 0, 'order_money': 0, 'order_no': '', 'create_shijian': '2019-08-13 16:42:48', 'finish_shijian': '2019-08-13 16:42:48', 'id': 1325, 'type': 1, 'title': '如何快速达成业绩指标', 'img': 'https://img.shaoziketang.com/img20180306111027_100.h.jpg', 'money': 0, 'ifnew': '2', 'is_evaluate': 1, 'per': '21%', 'course_type': '1'}, {'pid': 0, 'num': 0, 'order_money': 0, 'order_no': '', 'create_shijian': '2019-08-13 16:42:48', 'finish_shijian': '2019-08-13 16:42:48', 'id': 1401, 'type': 1, 'title': '从0到1打造门店运营流程', 'img': 'https://img.shaoziketang.com/img20180129154012_100.h.jpg', 'money': 0, 'ifnew': '0', 'is_evaluate': 1, 'per': '0%', 'course_type': '3'}], 'study': [{'id': 1415, 'type': 1, 'title': '大数据精准选址攻略', 'img': 'https://img.shaoziketang.com/img20180305180010_100.h.png', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000399, 'type': 1, 'title': '数据管理——周营业报表', 'img': 'https://img.test.shaoziketang.com/IMG/2020/06/12/JPG20200612140332121755_303218.jpg', 'money': '99.00', 'ifnew': '0', 'per': '39%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1497, 'type': 1, 'title': '如何提高餐厅的曝光度', 'img': 'https://img.shaoziketang.com/img20180322141627_100.h.jpg', 'money': '199.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1676, 'type': 1, 'title': '数据分析提升外卖单量', 'img': 'https://img.shaoziketang.com/img20181225165815_100.h.jpg', 'money': '19.90', 'ifnew': '0', 'per': '1%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000337, 'type': 1, 'title': '如何做好清洁消毒', 'img': 'https://img.test.shaoziketang.com/IMG/2020/04/01/JPG20200401164652126878_279805.jpg', 'money': '19.90', 'ifnew': '0', 'per': '11%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 772, 'type': 1, 'title': '菜单迭代与优化', 'img': 'https://img.shaoziketang.com/img20180426175623_100.h.jpg', 'money': '299.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000373, 'type': 1, 'title': 'Costco盈利模型大解析', 'img': 'https://img.test.shaoziketang.com/IMG/2020/04/23/JPG20200423143953936723_78354.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000375, 'type': 1, 'title': '如何提高外卖出餐效率', 'img': 'https://img.test.shaoziketang.com/IMG/2020/04/26/JPG20200426102649096601_255953.jpg', 'money': '29.90', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000376, 'type': 1, 'title': '向京东学什么？', 'img': 'https://img.test.shaoziketang.com/IMG/2020/04/30/JPG20200430135444840048_302996.jpg', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000251, 'type': 1, 'title': '手把手教你设计外卖活动 第1期', 'img': 'https://img.test.shaoziketang.com/IMG/2019/12/25/JPG20191225185420600575_289799.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '11', 'date_range': '01.13-01.16'}, {'id': 5000369, 'type': 1, 'title': '如何玩转大众点评霸王餐', 'img': 'https://img.test.shaoziketang.com/IMG/2020/04/17/JPG20200417094529291919_221262.jpg', 'money': '29.90', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 96, 'type': 1, 'title': '薪酬福利与员工激励', 'img': 'https://img.shaoziketang.com/img20180426161506_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 143, 'type': 1, 'title': '如何利用互联网引爆品牌', 'img': 'https://img.shaoziketang.com/img20180426155953_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 144, 'type': 1, 'title': '如何围绕用户做好营销', 'img': 'https://img.shaoziketang.com/img20180426160215_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1556, 'type': 1, 'title': '餐厅加盟流程全解析', 'img': 'https://img.shaoziketang.com/img20180720155438_100.h.png', 'money': '199.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1701, 'type': 1, 'title': '4步规划法，轻松开新店', 'img': 'https://img.shaoziketang.com/img20190213114311_100.h.jpg', 'money': '29.90', 'ifnew': '2', 'per': '5%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000345, 'type': 1, 'title': '大众点评5大装修技巧', 'img': 'https://img.test.shaoziketang.com/IMG/2020/03/18/JPG20200318135805853686_274838.jpg', 'money': '29.90', 'ifnew': '0', 'per': '6%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 35, 'type': 1, 'title': '20人管理1000人！丰茂烤串教你人力管理', 'img': 'https://img.shaoziketang.com/img20180608144858_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '0%', 'is_evaluate': 2, 'course_type': '1', 'date_range': ''}, {'id': 5000325, 'type': 1, 'title': '疫情后期如何高效获客？', 'img': 'https://img.test.shaoziketang.com/IMG/2020/02/27/JPG20200227160934745168_261750.jpg', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000350, 'type': 1, 'title': '外卖店如何科学选址', 'img': 'https://img.test.shaoziketang.com/IMG/2020/03/30/JPG20200330180213338866_318596.jpg', 'money': '19.90', 'ifnew': '0', 'per': '5%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000057, 'type': 1, 'title': '吉祥馄饨年入15亿的秘诀', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/09/JPG20191009101339195802_179129.jpg', 'money': '0.00', 'ifnew': '0', 'per': '33%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1105, 'type': 1, 'title': '餐厅选址的客流量分析', 'img': 'https://img.shaoziketang.com/img20180426180127_100.h.jpg', 'money': '19.90', 'ifnew': '0', 'per': '40%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1043, 'type': 1, 'title': '三步找到利润管理关键点', 'img': 'https://img.shaoziketang.com/img20180615175632_100.h.jpg', 'money': '199.00', 'ifnew': '0', 'per': '33%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000257, 'type': 1, 'title': '餐饮60秒：如何打造品牌感', 'img': 'https://img.test.shaoziketang.com/IMG/2019/12/27/JPG20191227134809891227_90274.jpg', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '10', 'date_range': ''}, {'id': 5000125, 'type': 1, 'title': '外卖品牌打造与菜单优化', 'img': 'https://img.test.shaoziketang.com/IMG/2019/11/07/JPG20191107112847270553_171992.jpg', 'money': '29.90', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000120, 'type': 1, 'title': '如何提升菜单盈利能力', 'img': 'https://img.test.shaoziketang.com/IMG/2019/11/04/PNG20191104184826063315_356318.png', 'money': '29.90', 'ifnew': '0', 'per': '53%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1746, 'type': 1, 'title': '如何找准品牌定位？', 'img': 'https://img.shaoziketang.com/img20190312184708_100.h.jpg', 'money': '199.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000249, 'type': 1, 'title': '爆款抖音案例解析', 'img': 'https://img.test.shaoziketang.com/IMG/2020/01/15/JPG20200115125232520718_235856.jpg', 'money': '29.90', 'ifnew': '0', 'per': '1%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000268, 'type': 1, 'title': '餐饮60秒：避开三大外卖雷区', 'img': 'https://img.test.shaoziketang.com/IMG/2020/01/03/JPG20200103171228481939_81858.jpg', 'money': '0.00', 'ifnew': '0', 'per': '53%', 'is_evaluate': 1, 'course_type': '10', 'date_range': ''}, {'id': 5000164, 'type': 1, 'title': '打造大众点评五星门店', 'img': 'https://img.test.shaoziketang.com/IMG/2019/11/19/JPG20191119191220405265_209868.jpg', 'money': '0.00', 'ifnew': '0', 'per': '98%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000216, 'type': 1, 'title': '读懂报表就这么简单 第1期', 'img': 'https://img.test.shaoziketang.com/IMG/2020/01/02/JPG20200102162655152567_279282.jpg', 'money': '99.00', 'ifnew': '0', 'per': '1%', 'is_evaluate': 1, 'course_type': '2', 'date_range': ''}, {'id': 5000265, 'type': 1, 'title': '如何引爆春节外卖', 'img': 'https://img.test.shaoziketang.com/IMG/2020/01/03/JPG20200103144010107814_78161.jpg', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1301, 'type': 1, 'title': '如何玩转会员积分', 'img': 'https://img.test.shaoziketang.com/IMG/2019/12/02/JPG20191202154359396026_194313.jpg', 'money': '29.90', 'ifnew': '0', 'per': '75%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000239, 'type': 1, 'title': '香他她如何建立品牌？', 'img': 'https://img.test.shaoziketang.com/IMG/2019/12/17/JPG20191217112309890120_197208.jpg', 'money': '0.00', 'ifnew': '0', 'per': '11%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000240, 'type': 1, 'title': '如何引爆夜宵档外卖', 'img': 'https://img.test.shaoziketang.com/IMG/2019/12/19/JPG20191219180052521381_259394.jpg', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1704, 'type': 1, 'title': '如何打造新店运营流程', 'img': 'https://img.test.shaoziketang.com/IMG/2020/03/20/JPG20200320145426662232_155940.jpg', 'money': '29.90', 'ifnew': '2', 'per': '1%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 110, 'type': 1, 'title': '餐企食品安全攻略与操作规范', 'img': 'https://img.shaoziketang.com/img20180426155859_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '11%', 'is_evaluate': 2, 'course_type': '1', 'date_range': ''}, {'id': 1687, 'type': 1, 'title': '如何增加外卖门店曝光量', 'img': 'https://img.shaoziketang.com/img20190117161255_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '1%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1315, 'type': 1, 'title': '你的餐厅为什么招不到人', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/28/JPG20191028160409494903_40665.jpg', 'money': '19.90', 'ifnew': '0', 'per': '60%', 'is_evaluate': 2, 'course_type': '1', 'date_range': ''}, {'id': 5000209, 'type': 1, 'title': '教你打造顾客喜爱的高性价比菜单', 'img': 'https://img.test.shaoziketang.com/IMG/2019/12/09/JPG20191209154552529048_64510.jpg', 'money': '0.00', 'ifnew': '0', 'per': '34%', 'is_evaluate': 1, 'course_type': '2', 'date_range': ''}, {'id': 1653, 'type': 1, 'title': '6大思维让餐厅顾客爆满', 'img': 'https://img.shaoziketang.com/img20181217161803_100.h.png', 'money': '29.90', 'ifnew': '0', 'per': '10%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1574, 'type': 1, 'title': 'BEST反馈法，批评的艺术', 'img': 'https://img.shaoziketang.com/img20180727150425_100.h.png', 'money': '0.00', 'ifnew': '0', 'per': '34%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1721, 'type': 1, 'title': '高峰期服务跟不上怎么办', 'img': 'https://img.shaoziketang.com/img20190225143607_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '9%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000181, 'type': 1, 'title': '老乡鸡15年八百店的秘密', 'img': 'https://img.test.shaoziketang.com/IMG/2019/11/26/JPG20191126110214341803_209832.jpg', 'money': '0.00', 'ifnew': '0', 'per': '28%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000087, 'type': 1, 'title': '让抖音炸裂餐厅流量 第2期', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/21/JPG20191021104331114816_109895.jpg', 'money': '599.00', 'ifnew': '0', 'per': '24%', 'is_evaluate': 3, 'course_type': '2', 'date_range': ''}, {'id': 5000006, 'type': 1, 'title': '点都德新营销模式的演绎', 'img': 'https://img.test.shaoziketang.com/IMG/2019/09/16/JPG20190916230459996354_192085.jpg', 'money': '0.00', 'ifnew': '0', 'per': '3%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000174, 'type': 1, 'title': '餐饮60秒:节日营销怎么做', 'img': 'https://img.test.shaoziketang.com/IMG/2019/11/22/JPG20191122140606667756_56202.jpg', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '10', 'date_range': ''}, {'id': 1716, 'type': 1, 'title': '外卖菜单规划逻辑', 'img': 'https://img.shaoziketang.com/img20190214180054_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1864, 'type': 1, 'title': '提升多门店业绩经营能力', 'img': 'https://img.shaoziketang.com/img20190627105835_100.h.jpg', 'money': '19.90', 'ifnew': '0', 'per': '1%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1298, 'type': 1, 'title': '节日营销该怎么做', 'img': 'https://img.shaoziketang.com/img20180614164334_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '8%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000111, 'type': 1, 'title': '外卖广告投放如何出价', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/31/JPG20191031170105655886_180278.jpg', 'money': '19.90', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000159, 'type': 1, 'title': '市场调研这么做，精准帮助餐厅决策', 'img': 'https://img.test.shaoziketang.com/IMG/2019/11/18/JPG20191118155229497559_97777.jpg', 'money': '29.90', 'ifnew': '0', 'per': '14%', 'is_evaluate': 1, 'course_type': '2', 'date_range': ''}, {'id': 5000162, 'type': 1, 'title': '9.9元精选课程包', 'img': 'https://img.test.shaoziketang.com/IMG/2019/11/19/JPG20191119162756765347_142867.jpg', 'money': '9.90', 'ifnew': '0', 'per': '1%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000166, 'type': 1, 'title': '陈鹏鹏鹅肉饭店单品战略', 'img': 'https://img.test.shaoziketang.com/IMG/2019/11/20/JPG20191120103735552944_239305.jpg', 'money': '0.00', 'ifnew': '0', 'per': '77%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 836, 'type': 1, 'title': '新店设计与装修', 'img': 'https://img.shaoziketang.com/img20180614171051_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1076, 'type': 1, 'title': '餐饮企业的合伙人制', 'img': 'https://img.test.shaoziketang.com/IMG/2019/11/13/JPG20191113175551511265_283521.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 52, 'type': 1, 'title': '剖析消费者需求，多维度提升店面销售业绩!', 'img': 'https://img.shaoziketang.com/img20180426174228_100.h.jpg', 'money': '19.90', 'ifnew': '0', 'per': '10%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000033, 'type': 1, 'title': '王品：洞察消费者找商机', 'img': 'https://img.test.shaoziketang.com/IMG/2019/09/26/JPG20190926134502026311_204735.jpg', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1322, 'type': 1, 'title': '7种外卖品类全面解析', 'img': 'https://img.shaoziketang.com/img20180423184102_100.h.png', 'money': '29.90', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1713, 'type': 1, 'title': '淡季活动怎么做，才能更吸引顾客', 'img': 'https://img.shaoziketang.com/img20190214170621_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1654, 'type': 1, 'title': '王品创始人的创业心法', 'img': 'https://img.test.shaoziketang.com/IMG/2020/03/11/JPG20200311101001019779_124661.jpg', 'money': '199.00', 'ifnew': '0', 'per': '62%', 'is_evaluate': 2, 'course_type': '1', 'date_range': ''}, {'id': 5000009, 'type': 1, 'title': '庆丰包子铺的坚守与坚持', 'img': 'https://img.test.shaoziketang.com/IMG/2019/09/16/JPG20190916230107672562_245130.jpg', 'money': '0.00', 'ifnew': '0', 'per': '95%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1714, 'type': 1, 'title': '发生顾客投诉怎么办？', 'img': 'https://img.shaoziketang.com/img20190214172348_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 236, 'type': 1, 'title': '门店选址差如何良性增长', 'img': 'https://img.shaoziketang.com/img20180614160510_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '16%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1411, 'type': 1, 'title': '6步打破餐厅采购困局', 'img': 'https://img.shaoziketang.com/img20180423182021_100.h.jpg', 'money': '0.00', 'ifnew': '0', 'per': '2%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000055, 'type': 1, 'title': '渝是乎如何实现千店连锁', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/09/JPG20191009100735554827_229665.jpg', 'money': '0.00', 'ifnew': '0', 'per': '48%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 780, 'type': 1, 'title': '外卖特训营 | 外卖平台玩儿法之菜单篇(3)', 'img': 'http://img.shaoziketang.com/p/7/r/S.h.png', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1756, 'type': 1, 'title': '餐企如何玩转短视频营销', 'img': 'https://img.shaoziketang.com/img20190327170125_100.h.jpg', 'money': '19.90', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1300, 'type': 1, 'title': '加盟热潮来袭，如何入局', 'img': 'https://img.shaoziketang.com/img20180614162323_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '2%', 'is_evaluate': 2, 'course_type': '1', 'date_range': ''}, {'id': 1523, 'type': 1, 'title': '企业如何进行战略定位', 'img': 'https://img.shaoziketang.com/img20180515160501_100.h.jpg', 'money': '399.00', 'ifnew': '0', 'per': '18%', 'is_evaluate': 2, 'course_type': '1', 'date_range': ''}, {'id': 298, 'type': 1, 'title': '教你从无到有开餐厅', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/28/JPEG20191028181729498735_198984.jpeg', 'money': '29.90', 'ifnew': '0', 'per': '3%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000086, 'type': 1, 'title': '品牌赋能，实现门店业绩持续增长', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/18/JPG20191018162441814072_169044.jpg', 'money': '0.00', 'ifnew': '0', 'per': '19%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1372, 'type': 1, 'title': '外卖运营经理必学之新手开店', 'img': 'https://img.shaoziketang.com/img20180201135038_100.h.png', 'money': '299.00', 'ifnew': '0', 'per': '1%', 'is_evaluate': 1, 'course_type': '3', 'date_range': ''}, {'id': 1496, 'type': 1, 'title': '与潜在加盟商洽谈中的注意点', 'img': 'https://img.shaoziketang.com/img20180614171140_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '2%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1860, 'type': 1, 'title': '提升门店效率的5大技巧', 'img': 'https://img.shaoziketang.com/img20190612145824_100.h.jpg', 'money': '19.90', 'ifnew': '0', 'per': '2%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1328, 'type': 1, 'title': '外卖新手入门指南', 'img': 'https://img.test.shaoziketang.com/IMG/2019/11/12/JPG20191112171047473040_142731.jpg', 'money': '199.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1661, 'type': 1, 'title': '每日优鲜爆红的营销心法', 'img': 'https://img.shaoziketang.com/img20181205161347_100.h.jpg', 'money': '0.00', 'ifnew': '0', 'per': '3%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 213, 'type': 1, 'title': '局气爆红的营销秘密', 'img': 'https://img.test.shaoziketang.com/IMG/2019/10/29/JPG20191029152424646291_292253.jpg', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1498, 'type': 1, 'title': '如何准确的给餐厅订货', 'img': 'https://img.shaoziketang.com/img20180614165651_100.h.png', 'money': '29.90', 'ifnew': '0', 'per': '11%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1316, 'type': 1, 'title': '如何进行门店训练安排', 'img': 'http://shaozi-new.oss-cn-beijing.aliyuncs.com/img20171206121307_100.h.jpg', 'money': '0.00', 'ifnew': '2', 'per': '8%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1401, 'type': 1, 'title': '从0到1打造门店运营流程', 'img': 'https://img.shaoziketang.com/img20180129154012_100.h.jpg', 'money': '19.90', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '3', 'date_range': ''}, {'id': 1299, 'type': 1, 'title': '外卖选址，这有绝招', 'img': 'https://img.shaoziketang.com/img20180614170935_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '36%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 73, 'type': 1, 'title': '西少爷的品牌营销法则', 'img': 'https://img.test.shaoziketang.com/IMG/2019/11/13/JPG20191113180243638286_257283.jpg', 'money': '0.00', 'ifnew': '0', 'per': '1%', 'is_evaluate': 2, 'course_type': '1', 'date_range': ''}, {'id': 5000030, 'type': 1, 'title': '外卖平台推广全方位解析', 'img': 'https://img.test.shaoziketang.com/IMG/2019/09/29/JPG20190929175948885952_110696.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1423, 'type': 1, 'title': '八维供应商评估法', 'img': 'https://img.shaoziketang.com/img20180426155338_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 304, 'type': 1, 'title': '供应链的价值与角色', 'img': 'https://img.shaoziketang.com/img20180426160644_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 5000023, 'type': 1, 'title': '西贝的品牌未来', 'img': 'https://img.test.shaoziketang.com/IMG/2019/09/19/JPG20190919150824040083_218039.jpg', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1700, 'type': 1, 'title': '高人气开业营销方案设计', 'img': 'https://img.shaoziketang.com/img20190131193640_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '6%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1310, 'type': 1, 'title': '美团大众点评引流方法解析', 'img': 'http://shaozi-new.oss-cn-beijing.aliyuncs.com/img20171206120908_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '54%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1313, 'type': 1, 'title': '储值卡如何设计储值溢价', 'img': 'https://img.shaoziketang.com/img20180314171637_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '44%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1075, 'type': 1, 'title': '供应链竞争时代，如何打造你的价格优势？', 'img': 'https://img.shaoziketang.com/img20180614161351_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '7%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1309, 'type': 1, 'title': '用最少的钱进入排名首页', 'img': 'https://img.shaoziketang.com/img20180614165420_100.h.jpg', 'money': '0.00', 'ifnew': '0', 'per': '7%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1776, 'type': 1, 'title': '能赚钱的菜单该如何设计', 'img': 'https://img.shaoziketang.com/img20190425163430_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '12%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1417, 'type': 1, 'title': '外卖爆单7步法', 'img': 'https://img.shaoziketang.com/img20180507121745_100.h.jpg', 'money': '199.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1503, 'type': 1, 'title': '入驻饿了么平台三大技能', 'img': 'https://img.shaoziketang.com/img20180404192142_100.h.jpg', 'money': '0.00', 'ifnew': '0', 'per': '80%', 'is_evaluate': 3, 'course_type': '1', 'date_range': ''}, {'id': 1507, 'type': 1, 'title': '小吃如何走品牌化道路', 'img': 'https://img.shaoziketang.com/img20180417095235_100.h.jpg', 'money': '0.00', 'ifnew': '0', 'per': '2%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1579, 'type': 1, 'title': '门店训练4步骤', 'img': 'https://img.shaoziketang.com/img20180803180049_100.h.jpg', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1546, 'type': 1, 'title': '餐厅如何分析顾客评价', 'img': 'https://img.shaoziketang.com/img20180607143219_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1171, 'type': 1, 'title': '从事餐饮业必备能力', 'img': 'https://img.shaoziketang.com/img20180316141048_100.h.jpg', 'money': '29.90', 'ifnew': '0', 'per': '12%', 'is_evaluate': 2, 'course_type': '1', 'date_range': ''}, {'id': 33, 'type': 1, 'title': '如何轻松hold住55家门店', 'img': 'https://img.shaoziketang.com/img20180614164248_100.h.jpg', 'money': '0.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1732, 'type': 1, 'title': '顾客回头率不高，我们该怎么办？', 'img': 'https://img.test.shaoziketang.com/IMG/2019/09/11/JPEG20190911183653137643_83925.jpeg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1760, 'type': 1, 'title': '如何打造深入人心的品牌', 'img': 'https://img.shaoziketang.com/img20190415110948_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '5%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1856, 'type': 1, 'title': '如何合理搭建股权架构', 'img': 'https://img.shaoziketang.com/img20190530155632_100.h.jpg', 'money': '0.00', 'ifnew': '0', 'per': '34%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 771, 'type': 1, 'title': '菜单吸引力法则', 'img': 'https://img.shaoziketang.com/img20180608150043_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1374, 'type': 1, 'title': '外卖运营经理必学之线上数据分析', 'img': 'http://shaozi-new.oss-cn-beijing.aliyuncs.com/img20171206104214_100.h.jpg', 'money': '99.00', 'ifnew': '0', 'per': '20%', 'is_evaluate': 1, 'course_type': '3', 'date_range': ''}, {'id': 1863, 'type': 1, 'title': '5招解决餐厅客流问题', 'img': 'https://img.shaoziketang.com/img20190626182450_100.h.jpg', 'money': '199.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1669, 'type': 1, 'title': '品牌升级定位24讲', 'img': 'https://img.shaoziketang.com/img20181217190541_100.h.jpg', 'money': '399.00', 'ifnew': '0', 'per': '0%', 'is_evaluate': 1, 'course_type': '1', 'date_range': ''}, {'id': 1761, 'type': 1, 'title': '如何进行品牌升级', 'img': 'https://img.shaoziketang.com/img20190402170936_100.h.jpg', 'money':</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -1315,9 +1315,9 @@
       <c r="H3" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>{'code': 200, 'message': '查询成功', 'data': {'info': {'avator': 'http://thirdwx.qlogo.cn/mmopen/vi_32/9YLW0MxAhmtOTBABw9P7WwndoBcDD1lERY2MLomYq56965QfV4ic8dAdLcOmIPLelYv8XI3kGTJoVop54iaJib1rQ/132', 'name': '勺子课堂Tester', 'nickname': '一位年轻人', 'position': '门店骨干-门店管理层（区域经理、店长）', 'brand': '润城中心四楼，', 'area': '天津市', 'mensum': '4~10家', 'new_scale_id': 3, 'email': '哈哈', 'sex': 0, 'openid': 'o0Wo60RElWXuAxGH6-_Sw-eASjUM', 'senior': 0, 'ios_integral': '271.10', 'mobile': 17713162100, 'rand_str': '5f194d1468b59', 'ifcompany': 0, 'is_vip': 2, 'is_staff': 0, 'is_tourst': '0', 'user_from': 'IOS', 'new_position': '门店骨干-门店管理层（区域经理、店长）', 'position_id': '4-36', 'new_major': [{'id': 10, 'name': '业绩提升'}, {'id': 11, 'name': '团队有劲'}, {'id': 12, 'name': '营销高效'}], 'new_address': '天津市-天津市-和平区', 'new_scale': '4~10家', 'is_perfect': 1, 'is_display_company': 1, 'go_on': 0, 'bao': 1, 'company_endshijian': '', 'is_company_status': -2, 'is_test_company': 0, 'member_start': '', 'member_end': '2025-08-12', 'c_start_time': '2019-08-14', 'c_end_time': '2025-08-12', 'mess_num': 0, 'daily': {'is_sign': 1, 'img': 'https://img.shaoziketang.com/img20190328173759_100.h.png', 'count': 64, 'study_time': 781}}, 'ext': {'majors': [{'id': 1, 'name': '综合管理'}, {'id': 2, 'name': '人事'}, {'id': 3, 'name': '培训'}, {'id': 4, 'name': '财务管理'}, {'id': 5, 'name': '品牌市场及营销'}, {'id': 6, 'name': '外卖'}, {'id': 7, 'name': '加盟'}, {'id': 8, 'name': '开发选址'}, {'id': 9, 'name': '厨政研发'}, {'id': 10, 'name': '业绩提升'}, {'id': 11, 'name': '团队有劲'}, {'id': 12, 'name': '营销高效'}, {'id': 13, 'name': '品牌升级'}, {'id': 14, 'name': '做强外卖'}, {'id': 15, 'name': '连锁扩张'}, {'id': 16, 'name': '体验升级'}], 'positions': [{'id': 1, 'name': '老板', 'parent_id': 0, 'children': [{'id': 6, 'name': '创始人', 'parent_id': 1}, {'id': 8, 'name': '合伙人', 'parent_id': 1}, {'id': 9, 'name': '董事长', 'parent_id': 1}, {'id': 10, 'name': '总经理', 'parent_id': 1}, {'id': 11, 'name': 'CEO', 'parent_id': 1}, {'id': 12, 'name': '总裁', 'parent_id': 1}, {'id': 34, 'name': '董事长/联合创始人/CEO', 'parent_id': 1}]}, {'id': 2, 'name': '总部骨干', 'parent_id': 0, 'children': [{'id': 13, 'name': '副总裁', 'parent_id': 2}, {'id': 15, 'name': '部门总监', 'parent_id': 2}, {'id': 16, 'name': '部门主管', 'parent_id': 2}, {'id': 17, 'name': '区域长', 'parent_id': 2}, {'id': 18, 'name': '督导', 'parent_id': 2}, {'id': 19, 'name': '顾问', 'parent_id': 2}, {'id': 35, 'name': '总部管理层（部门总监、总部员工）', 'parent_id': 2}]}, {'id': 3, 'name': '总部业务成员', 'parent_id': 0, 'children': [{'id': 20, 'name': '业务经理', 'parent_id': 3}, {'id': 21, 'name': '业务专员', 'parent_id': 3}, {'id': 22, 'name': '部门初级负责人', 'parent_id': 3}]}, {'id': 4, 'name': '门店骨干', 'parent_id': 0, 'children': [{'id': 23, 'name': '店长', 'parent_id': 4}, {'id': 24, 'name': '储备店长', 'parent_id': 4}, {'id': 25, 'name': '厨师长', 'parent_id': 4}, {'id': 26, 'name': '业务经理', 'parent_id': 4}, {'id': 27, 'name': '前厅经理', 'parent_id': 4}, {'id': 28, 'name': '前厅主管', 'parent_id': 4}, {'id': 29, 'name': '领班', 'parent_id': 4}, {'id': 36, 'name': '门店管理层（区域经理、店长）', 'parent_id': 4}]}, {'id': 5, 'name': '门店成员', 'parent_id': 0, 'children': [{'id': 30, 'name': '训练员', 'parent_id': 5}, {'id': 31, 'name': '收银员', 'parent_id': 5}, {'id': 32, 'name': '服务员', 'parent_id': 5}, {'id': 33, 'name': '厨师', 'parent_id': 5}, {'id': 37, 'name': '门店执行层（储备干部、副理、领班）', 'parent_id': 5}]}], 'store_num': [{'id': 1, 'name': '筹备中'}, {'id': 2, 'name': '1~3家'}, {'id': 3, 'name': '4~10家'}, {'id': 4, 'name': '11~30家'}, {'id': 5, 'name': '30~50家'}, {'id': 6, 'name': '50家以上'}]}, 'study_data': {'study_time': 46881, 'sort': '94.83%'}, 'identity_info': {'identity': 1, 'member_end_time': '2025-08-12', 'company_info': {'is_submit': 1}}}}</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>

--- a/data/ddt_data.xlsx
+++ b/data/ddt_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7590" windowWidth="19890"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="my" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="api" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="my" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="api" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -482,7 +482,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
@@ -491,10 +491,10 @@
     <xf applyAlignment="1" borderId="2" fillId="12" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
@@ -503,7 +503,7 @@
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
@@ -979,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1173,7 +1173,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="${host}login/data" ref="D3" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="${host}login/data" ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1374,7 +1374,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://api.test.shaoziketang.com/wap/v2.8/" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://api.test.shaoziketang.com/wap/v2.8/" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/ddt_data.xlsx
+++ b/data/ddt_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7590" windowWidth="19890"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="my" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="api" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="my" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="api" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -979,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1173,7 +1173,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="${host}login/data" ref="D3" r:id="rId1"/>
+    <hyperlink display="${host}login/data" ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1374,7 +1374,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://api.test.shaoziketang.com/wap/v2.8/" ref="B2" r:id="rId1"/>
+    <hyperlink display="http://api.test.shaoziketang.com/wap/v2.8/" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/ddt_data.xlsx
+++ b/data/ddt_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7590" windowWidth="19890"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="my" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="api" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="my" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="api" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -979,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1173,7 +1173,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="${host}login/data" ref="D3" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="${host}login/data" ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1374,7 +1374,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://api.test.shaoziketang.com/wap/v2.8/" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://api.test.shaoziketang.com/wap/v2.8/" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
